--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2301728.257647658</v>
+        <v>2299476.17793645</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9521348.128946904</v>
+        <v>9521348.128946902</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>50.73003670622291</v>
+        <v>114.4918089738209</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.39509596963986</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,10 +871,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.99473116157623</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>210.6768297769858</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>35.29706439293612</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>92.11587235770475</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>110.4892783404652</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.70843787977127</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012282</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.68426743653167</v>
+        <v>121.8000472740355</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833902</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>191.8002798907951</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>120.8326485140805</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505416</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.20606459030872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.3021949834108</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>171.3759287839202</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340525</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10.63412424768254</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187873</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>111.5056986361888</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715268</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>221.2030256723193</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141533</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>140.9144183062133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.2234001515595</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288467</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2038.144201386631</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1669.18168444622</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,40 +4325,40 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064554</v>
@@ -4407,22 +4407,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4519,19 +4519,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1196.022040344355</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>975.2294612008251</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1582.86133602681</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.898819086399</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
         <v>1213.898819086399</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>1969.461176090932</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.461176090932</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1801.810490449115</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1801.810490449115</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3232.559485894317</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3026.581738278539</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2773.051261552376</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2773.051261552376</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5018,61 +5018,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400699</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812163</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998272</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998272</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998272</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>815.9830526793647</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>665.866413267029</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E16" t="n">
-        <v>517.9533196846359</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F16" t="n">
-        <v>371.0633721867255</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G16" t="n">
-        <v>203.8672729016054</v>
+        <v>216.847013829826</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.8461362382113</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>472.9099533103044</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>322.7933138979687</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979687</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782998</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038384</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797786</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.276731109999</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.287180211981</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>823.4946010684511</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.7436897307826</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>822.8075068028758</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>672.69086739054</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>524.7777738081469</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6242,7 +6242,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6257,7 +6257,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>696.7084350851671</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>546.5917956728314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6546,16 +6546,16 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.0422355233313</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>640.1060525954244</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.485273605118</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647281</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368213</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>481.4479471244855</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420924</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>186.644906044182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>216.847013829826</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2084.430526663135</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1795.355300007332</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1540.670811801445</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1251.253641764485</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1023.264090866467</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>802.4715117229372</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239597</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723912</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723912</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>221.3431781811715</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>221.3431781811715</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>671.2000270096665</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>740.556298996152</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>762.5477693179081</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>593.6115863900012</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>593.6115863900012</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>445.6984928076081</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>298.8085453096977</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>298.8085453096977</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518958</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W46" t="n">
         <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-9.77396353803295e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8157004124976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>112.6104454096922</v>
+        <v>18.49466557218436</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823015</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>60.33736343303295</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>24.58839950885071</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172147</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489159</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.3785887617861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>9.131767663158399</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.456051398017138</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788483</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>154.8900140445863</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823324</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>105.8997516910995</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124971</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>65.31997266427166</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.725524766797</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.6085800303778</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572568089</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819955.4229552648</v>
+        <v>819955.4229552649</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819955.4229552649</v>
+        <v>819955.4229552648</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184272</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184269</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184272</v>
-      </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184285</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913691.2017739675</v>
+        <v>-913691.2017739677</v>
       </c>
       <c r="C6" t="n">
+        <v>415053.543953625</v>
+      </c>
+      <c r="D6" t="n">
         <v>415053.5439536251</v>
       </c>
-      <c r="D6" t="n">
-        <v>415053.543953625</v>
-      </c>
       <c r="E6" t="n">
-        <v>165218.1500243991</v>
+        <v>165183.4120989634</v>
       </c>
       <c r="F6" t="n">
-        <v>490630.6118317542</v>
+        <v>490595.873906319</v>
       </c>
       <c r="G6" t="n">
-        <v>490630.6118317545</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="H6" t="n">
-        <v>490630.6118317544</v>
+        <v>490595.8739063183</v>
       </c>
       <c r="I6" t="n">
-        <v>490630.6118317545</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="J6" t="n">
-        <v>273099.409434477</v>
+        <v>273064.6715090412</v>
       </c>
       <c r="K6" t="n">
-        <v>490630.6118317543</v>
+        <v>490595.8739063186</v>
       </c>
       <c r="L6" t="n">
-        <v>490630.6118317544</v>
+        <v>490595.873906319</v>
       </c>
       <c r="M6" t="n">
-        <v>405575.5838962426</v>
+        <v>405540.8459708071</v>
       </c>
       <c r="N6" t="n">
-        <v>490630.6118317542</v>
+        <v>490595.8739063192</v>
       </c>
       <c r="O6" t="n">
-        <v>490630.6118317543</v>
+        <v>490595.8739063187</v>
       </c>
       <c r="P6" t="n">
-        <v>490630.6118317544</v>
+        <v>490595.8739063186</v>
       </c>
     </row>
   </sheetData>
@@ -26771,13 +26771,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,10 +26796,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,37 +27018,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.306832697356</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697356</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>303.9530049144601</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.4368842122974</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>26.19303062659961</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>159.0542709014832</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>184.2518848832331</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>17.07188943047109</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>115.220377048572</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.06866097220871e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129198</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>614.59004755871</v>
+        <v>454.5879800486389</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>353.130074847795</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716332</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>460.9249101897659</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817577</v>
@@ -33266,19 +33266,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111242</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7190218511037</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33524,7 +33524,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162534</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,28 +33740,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>137.7376326175077</v>
+        <v>530.4152909475297</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>622.3466130915036</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092806</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162589</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>253.8670488165984</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>233.313924489793</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236535</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>353.6230700590493</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.04966154581</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,46 +34518,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385608</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>471.9938031142656</v>
+        <v>311.9917356041944</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295751</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,7 +36124,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>219.1556674334648</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496655</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>71.39556506237764</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3705304098917</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.96455263124998</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>207.1227774066593</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462661</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>6.395920534174421</v>
+        <v>399.0735788641963</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>479.7503686470592</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531665</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462716</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>127.0294221499317</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991886</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683839</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>211.4890361370309</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013655</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
